--- a/Dataset/15/낮과밤_학습(15)/낮과밤7.xlsx
+++ b/Dataset/15/낮과밤_학습(15)/낮과밤7.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\doohk\Desktop\GIST\4학년 1학기\AI 프로젝트\AI\Dataset\15\낮과밤_학습(15)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C83262CD-713B-4BA3-95E8-8D5F34498CB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCA5F6C3-0F36-4EF0-8F2B-43CE441B5370}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3977" yWindow="3977" windowWidth="16329" windowHeight="13054" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -4018,7 +4018,7 @@
   <dimension ref="A1:F602"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.600000000000001" x14ac:dyDescent="0.55000000000000004"/>
@@ -4059,7 +4059,6 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <f t="shared" ref="E2:E65" si="0">IF(ISBLANK(F2),D2,F2)</f>
         <v>0</v>
       </c>
     </row>
@@ -4074,11 +4073,10 @@
         <v>1.45382909104228E-2</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D66" si="1">IF(C3&gt;0.5, 1, 0)</f>
+        <f t="shared" ref="D3:D66" si="0">IF(C3&gt;0.5, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="E3">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4093,11 +4091,10 @@
         <v>0.99058318138122559</v>
       </c>
       <c r="D4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E4">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -4112,11 +4109,10 @@
         <v>1.432861760258675E-2</v>
       </c>
       <c r="D5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E5">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4131,11 +4127,10 @@
         <v>0.9712597131729126</v>
       </c>
       <c r="D6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E6">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -4150,11 +4145,10 @@
         <v>1.4480337500572199E-2</v>
       </c>
       <c r="D7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E7">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4169,11 +4163,10 @@
         <v>0.98421281576156616</v>
       </c>
       <c r="D8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E8">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -4188,11 +4181,10 @@
         <v>1.5044069848954679E-2</v>
       </c>
       <c r="D9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E9">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4207,11 +4199,10 @@
         <v>1.4312866143882269E-2</v>
       </c>
       <c r="D10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E10">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4226,11 +4217,10 @@
         <v>5.6054763495922089E-2</v>
       </c>
       <c r="D11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E11">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4245,11 +4235,10 @@
         <v>1.464145258069038E-2</v>
       </c>
       <c r="D12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E12">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4264,11 +4253,10 @@
         <v>1.437855791300535E-2</v>
       </c>
       <c r="D13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E13">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4283,11 +4271,10 @@
         <v>1.5834841877222061E-2</v>
       </c>
       <c r="D14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E14">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4302,11 +4289,10 @@
         <v>1.446691062301397E-2</v>
       </c>
       <c r="D15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E15">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4321,11 +4307,10 @@
         <v>1.431464962661266E-2</v>
       </c>
       <c r="D16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E16">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4340,11 +4325,10 @@
         <v>8.091089129447937E-2</v>
       </c>
       <c r="D17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E17">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4359,11 +4343,10 @@
         <v>1.49915711954236E-2</v>
       </c>
       <c r="D18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E18">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4378,11 +4361,10 @@
         <v>1.458890456706285E-2</v>
       </c>
       <c r="D19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E19">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4397,11 +4379,10 @@
         <v>1.4329950325191019E-2</v>
       </c>
       <c r="D20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E20">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4416,11 +4397,10 @@
         <v>1.496932934969664E-2</v>
       </c>
       <c r="D21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E21">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4435,11 +4415,10 @@
         <v>1.422619726508856E-2</v>
       </c>
       <c r="D22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E22">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4454,11 +4433,10 @@
         <v>1.4258128590881819E-2</v>
       </c>
       <c r="D23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E23">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4473,11 +4451,10 @@
         <v>1.5078944154083731E-2</v>
       </c>
       <c r="D24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E24">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4492,11 +4469,10 @@
         <v>1.5044190920889379E-2</v>
       </c>
       <c r="D25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E25">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4511,11 +4487,10 @@
         <v>1.4206403866410261E-2</v>
       </c>
       <c r="D26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E26">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4530,11 +4505,10 @@
         <v>1.4302275143563749E-2</v>
       </c>
       <c r="D27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E27">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4549,11 +4523,10 @@
         <v>1.647736877202988E-2</v>
       </c>
       <c r="D28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E28">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4568,11 +4541,10 @@
         <v>1.4777811244130129E-2</v>
       </c>
       <c r="D29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E29">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4587,11 +4559,10 @@
         <v>1.4577186666429039E-2</v>
       </c>
       <c r="D30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E30">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4606,11 +4577,10 @@
         <v>1.427898835390806E-2</v>
       </c>
       <c r="D31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E31">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4625,11 +4595,10 @@
         <v>1.874746568500996E-2</v>
       </c>
       <c r="D32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E32">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4644,11 +4613,10 @@
         <v>1.962925307452679E-2</v>
       </c>
       <c r="D33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E33">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4663,11 +4631,10 @@
         <v>1.4780400320887571E-2</v>
       </c>
       <c r="D34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E34">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4682,11 +4649,10 @@
         <v>1.572798378765583E-2</v>
       </c>
       <c r="D35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E35">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4701,11 +4667,10 @@
         <v>1.4793516136705881E-2</v>
       </c>
       <c r="D36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E36">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4720,11 +4685,10 @@
         <v>1.506578549742699E-2</v>
       </c>
       <c r="D37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E37">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4739,11 +4703,10 @@
         <v>2.0627254620194439E-2</v>
       </c>
       <c r="D38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E38">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4758,11 +4721,10 @@
         <v>1.7129898071289059E-2</v>
       </c>
       <c r="D39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E39">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4777,11 +4739,10 @@
         <v>1.4294471591711041E-2</v>
       </c>
       <c r="D40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E40">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4796,11 +4757,10 @@
         <v>5.3644731640815728E-2</v>
       </c>
       <c r="D41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E41">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4815,11 +4775,10 @@
         <v>1.416180375963449E-2</v>
       </c>
       <c r="D42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E42">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4834,11 +4793,10 @@
         <v>1.4627960510551929E-2</v>
       </c>
       <c r="D43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E43">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4853,11 +4811,10 @@
         <v>1.481543108820915E-2</v>
       </c>
       <c r="D44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E44">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4872,11 +4829,10 @@
         <v>1.470337808132172E-2</v>
       </c>
       <c r="D45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E45">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4891,11 +4847,10 @@
         <v>1.4301596209406849E-2</v>
       </c>
       <c r="D46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E46">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4910,11 +4865,10 @@
         <v>1.426473166793585E-2</v>
       </c>
       <c r="D47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E47">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4929,11 +4883,10 @@
         <v>3.4361910074949258E-2</v>
       </c>
       <c r="D48">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E48">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4948,11 +4901,10 @@
         <v>1.425521355122328E-2</v>
       </c>
       <c r="D49">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E49">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4967,11 +4919,10 @@
         <v>1.493137516081333E-2</v>
       </c>
       <c r="D50">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E50">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4986,11 +4937,10 @@
         <v>1.41917122527957E-2</v>
       </c>
       <c r="D51">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E51">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5005,11 +4955,10 @@
         <v>1.4211961068212989E-2</v>
       </c>
       <c r="D52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E52">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5024,11 +4973,10 @@
         <v>1.5600342303514481E-2</v>
       </c>
       <c r="D53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E53">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5043,11 +4991,10 @@
         <v>4.6359032392501831E-2</v>
       </c>
       <c r="D54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E54">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5062,11 +5009,10 @@
         <v>1.4872191473841671E-2</v>
       </c>
       <c r="D55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E55">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5081,11 +5027,10 @@
         <v>1.7487389966845509E-2</v>
       </c>
       <c r="D56">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E56">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5100,11 +5045,10 @@
         <v>1.514339633285999E-2</v>
       </c>
       <c r="D57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E57">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5119,11 +5063,10 @@
         <v>2.4150906130671501E-2</v>
       </c>
       <c r="D58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E58">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5138,11 +5081,10 @@
         <v>1.4328691177070141E-2</v>
       </c>
       <c r="D59">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E59">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5157,11 +5099,10 @@
         <v>1.421644352376461E-2</v>
       </c>
       <c r="D60">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E60">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5176,11 +5117,10 @@
         <v>1.5316454693675039E-2</v>
       </c>
       <c r="D61">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E61">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5195,11 +5135,10 @@
         <v>0.96885520219802856</v>
       </c>
       <c r="D62">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E62">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F62">
@@ -5217,11 +5156,10 @@
         <v>9.6844173967838287E-2</v>
       </c>
       <c r="D63">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E63">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5236,11 +5174,10 @@
         <v>0.98685956001281738</v>
       </c>
       <c r="D64">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E64">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -5255,11 +5192,10 @@
         <v>1.562137994915247E-2</v>
       </c>
       <c r="D65">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E65">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5274,11 +5210,10 @@
         <v>0.99039065837860107</v>
       </c>
       <c r="D66">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E66">
-        <f t="shared" ref="E66:E129" si="2">IF(ISBLANK(F66),D66,F66)</f>
         <v>1</v>
       </c>
     </row>
@@ -5293,11 +5228,10 @@
         <v>1.735642924904823E-2</v>
       </c>
       <c r="D67">
-        <f t="shared" ref="D67:D130" si="3">IF(C67&gt;0.5, 1, 0)</f>
+        <f t="shared" ref="D67:D130" si="1">IF(C67&gt;0.5, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="E67">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5312,11 +5246,10 @@
         <v>0.32755467295646667</v>
       </c>
       <c r="D68">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E68">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5331,11 +5264,10 @@
         <v>1.4478022232651711E-2</v>
       </c>
       <c r="D69">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E69">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5350,11 +5282,10 @@
         <v>1.4403975568711759E-2</v>
       </c>
       <c r="D70">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E70">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5369,11 +5300,10 @@
         <v>1.4648015610873699E-2</v>
       </c>
       <c r="D71">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E71">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5388,11 +5318,10 @@
         <v>1.4347013086080549E-2</v>
       </c>
       <c r="D72">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E72">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5407,11 +5336,10 @@
         <v>1.428864244371653E-2</v>
       </c>
       <c r="D73">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E73">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5426,11 +5354,10 @@
         <v>4.8990435898303993E-2</v>
       </c>
       <c r="D74">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E74">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5445,11 +5372,10 @@
         <v>2.0180560648441311E-2</v>
       </c>
       <c r="D75">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E75">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5464,11 +5390,10 @@
         <v>1.4416537247598169E-2</v>
       </c>
       <c r="D76">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E76">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5483,11 +5408,10 @@
         <v>1.495226845145226E-2</v>
       </c>
       <c r="D77">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E77">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5502,11 +5426,10 @@
         <v>1.8562845885753632E-2</v>
       </c>
       <c r="D78">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E78">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5521,11 +5444,10 @@
         <v>0.84985166788101196</v>
       </c>
       <c r="D79">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E79">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F79">
@@ -5543,11 +5465,10 @@
         <v>0.90987926721572876</v>
       </c>
       <c r="D80">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E80">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F80">
@@ -5565,11 +5486,10 @@
         <v>3.6367014050483697E-2</v>
       </c>
       <c r="D81">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E81">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5584,11 +5504,10 @@
         <v>1.5629366040229801E-2</v>
       </c>
       <c r="D82">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E82">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5603,11 +5522,10 @@
         <v>2.058232948184013E-2</v>
       </c>
       <c r="D83">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E83">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5622,11 +5540,10 @@
         <v>1.5265751630067831E-2</v>
       </c>
       <c r="D84">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E84">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5641,11 +5558,10 @@
         <v>1.457620784640312E-2</v>
       </c>
       <c r="D85">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E85">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5660,11 +5576,10 @@
         <v>1.673932746052742E-2</v>
       </c>
       <c r="D86">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E86">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5679,11 +5594,10 @@
         <v>0.90989720821380615</v>
       </c>
       <c r="D87">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E87">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -5698,11 +5612,10 @@
         <v>1.5216841362416741E-2</v>
       </c>
       <c r="D88">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E88">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5717,11 +5630,10 @@
         <v>1.514321751892567E-2</v>
       </c>
       <c r="D89">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E89">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5736,11 +5648,10 @@
         <v>1.4242575503885749E-2</v>
       </c>
       <c r="D90">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E90">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5755,11 +5666,10 @@
         <v>0.9904060959815979</v>
       </c>
       <c r="D91">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E91">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -5774,11 +5684,10 @@
         <v>1.451470050960779E-2</v>
       </c>
       <c r="D92">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E92">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5793,11 +5702,10 @@
         <v>1.430589240044355E-2</v>
       </c>
       <c r="D93">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E93">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5812,11 +5720,10 @@
         <v>2.0123502239584919E-2</v>
       </c>
       <c r="D94">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E94">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5831,11 +5738,10 @@
         <v>1.4661760069429869E-2</v>
       </c>
       <c r="D95">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E95">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5850,11 +5756,10 @@
         <v>1.4979922212660309E-2</v>
       </c>
       <c r="D96">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E96">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5869,11 +5774,10 @@
         <v>1.4421693980693821E-2</v>
       </c>
       <c r="D97">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E97">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5888,11 +5792,10 @@
         <v>1.8257072195410728E-2</v>
       </c>
       <c r="D98">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E98">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5907,11 +5810,10 @@
         <v>3.0664438381791111E-2</v>
       </c>
       <c r="D99">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E99">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5926,11 +5828,10 @@
         <v>1.4226550236344339E-2</v>
       </c>
       <c r="D100">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E100">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5945,11 +5846,10 @@
         <v>1.528558414429426E-2</v>
       </c>
       <c r="D101">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E101">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5964,11 +5864,10 @@
         <v>1.55559116974473E-2</v>
       </c>
       <c r="D102">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E102">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5983,11 +5882,10 @@
         <v>1.441484410315752E-2</v>
       </c>
       <c r="D103">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E103">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6002,11 +5900,10 @@
         <v>0.99019569158554077</v>
       </c>
       <c r="D104">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E104">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -6021,11 +5918,10 @@
         <v>3.1276069581508643E-2</v>
       </c>
       <c r="D105">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E105">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6040,11 +5936,10 @@
         <v>1.4643013477325439E-2</v>
       </c>
       <c r="D106">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E106">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6059,11 +5954,10 @@
         <v>1.4307143166661261E-2</v>
       </c>
       <c r="D107">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E107">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6078,11 +5972,10 @@
         <v>1.493749767541885E-2</v>
       </c>
       <c r="D108">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E108">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6097,11 +5990,10 @@
         <v>0.11537358909845349</v>
       </c>
       <c r="D109">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E109">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6116,11 +6008,10 @@
         <v>1.4188758097589019E-2</v>
       </c>
       <c r="D110">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E110">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6135,11 +6026,10 @@
         <v>4.3459523469209671E-2</v>
       </c>
       <c r="D111">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E111">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6154,11 +6044,10 @@
         <v>1.483254041522741E-2</v>
       </c>
       <c r="D112">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E112">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6173,11 +6062,10 @@
         <v>1.5067496336996561E-2</v>
       </c>
       <c r="D113">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E113">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6192,11 +6080,10 @@
         <v>2.867165952920914E-2</v>
       </c>
       <c r="D114">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E114">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6211,11 +6098,10 @@
         <v>6.3256196677684784E-2</v>
       </c>
       <c r="D115">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E115">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6230,11 +6116,10 @@
         <v>1.517439726740122E-2</v>
       </c>
       <c r="D116">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E116">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6249,11 +6134,10 @@
         <v>3.3569730818271637E-2</v>
       </c>
       <c r="D117">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E117">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6268,11 +6152,10 @@
         <v>2.036022953689098E-2</v>
       </c>
       <c r="D118">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E118">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6287,11 +6170,10 @@
         <v>1.452762354165316E-2</v>
       </c>
       <c r="D119">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E119">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6306,11 +6188,10 @@
         <v>1.434785593301058E-2</v>
       </c>
       <c r="D120">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E120">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6325,11 +6206,10 @@
         <v>1.472519524395466E-2</v>
       </c>
       <c r="D121">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E121">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6344,11 +6224,10 @@
         <v>1.982096582651138E-2</v>
       </c>
       <c r="D122">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E122">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6363,11 +6242,10 @@
         <v>1.4245086349546909E-2</v>
       </c>
       <c r="D123">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E123">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6382,11 +6260,10 @@
         <v>1.422226522117853E-2</v>
       </c>
       <c r="D124">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E124">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6401,11 +6278,10 @@
         <v>0.99024474620819092</v>
       </c>
       <c r="D125">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E125">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -6420,11 +6296,10 @@
         <v>1.430731825530529E-2</v>
       </c>
       <c r="D126">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E126">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6439,11 +6314,10 @@
         <v>3.9345007389783859E-2</v>
       </c>
       <c r="D127">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E127">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6458,11 +6332,10 @@
         <v>0.57612532377243042</v>
       </c>
       <c r="D128">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E128">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -6477,11 +6350,10 @@
         <v>7.4340991675853729E-2</v>
       </c>
       <c r="D129">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E129">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6496,11 +6368,10 @@
         <v>0.99058330059051514</v>
       </c>
       <c r="D130">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E130">
-        <f t="shared" ref="E130:E193" si="4">IF(ISBLANK(F130),D130,F130)</f>
         <v>1</v>
       </c>
     </row>
@@ -6515,11 +6386,10 @@
         <v>1.487181335687637E-2</v>
       </c>
       <c r="D131">
-        <f t="shared" ref="D131:D194" si="5">IF(C131&gt;0.5, 1, 0)</f>
+        <f t="shared" ref="D131:D194" si="2">IF(C131&gt;0.5, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="E131">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -6534,11 +6404,10 @@
         <v>1.4667436480522159E-2</v>
       </c>
       <c r="D132">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E132">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -6553,11 +6422,10 @@
         <v>0.76754271984100342</v>
       </c>
       <c r="D133">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E133">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F133">
@@ -6575,11 +6443,10 @@
         <v>3.022293746471405E-2</v>
       </c>
       <c r="D134">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E134">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -6594,11 +6461,10 @@
         <v>4.3258719146251678E-2</v>
       </c>
       <c r="D135">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E135">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -6613,11 +6479,10 @@
         <v>1.478742249310017E-2</v>
       </c>
       <c r="D136">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E136">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -6632,11 +6497,10 @@
         <v>0.17182078957557681</v>
       </c>
       <c r="D137">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E137">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -6651,11 +6515,10 @@
         <v>0.1974115073680878</v>
       </c>
       <c r="D138">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E138">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -6670,11 +6533,10 @@
         <v>0.9905693531036377</v>
       </c>
       <c r="D139">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E139">
-        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -6689,11 +6551,10 @@
         <v>1.4270888641476629E-2</v>
       </c>
       <c r="D140">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E140">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -6708,11 +6569,10 @@
         <v>9.8798573017120361E-2</v>
       </c>
       <c r="D141">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E141">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -6727,11 +6587,10 @@
         <v>0.33112576603889471</v>
       </c>
       <c r="D142">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E142">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -6746,11 +6605,10 @@
         <v>0.89440494775772095</v>
       </c>
       <c r="D143">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E143">
-        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -6765,11 +6623,10 @@
         <v>1.435912121087313E-2</v>
       </c>
       <c r="D144">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E144">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -6784,11 +6641,10 @@
         <v>1.426652353256941E-2</v>
       </c>
       <c r="D145">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E145">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -6803,11 +6659,10 @@
         <v>1.417695824056864E-2</v>
       </c>
       <c r="D146">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E146">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -6822,11 +6677,10 @@
         <v>1.4837732538580889E-2</v>
       </c>
       <c r="D147">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E147">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -6841,11 +6695,10 @@
         <v>2.0431879907846451E-2</v>
       </c>
       <c r="D148">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E148">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -6860,11 +6713,10 @@
         <v>1.4307983219623569E-2</v>
       </c>
       <c r="D149">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E149">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -6879,11 +6731,10 @@
         <v>3.743092343211174E-2</v>
       </c>
       <c r="D150">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E150">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -6898,11 +6749,10 @@
         <v>1.646878570318222E-2</v>
       </c>
       <c r="D151">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E151">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -6917,11 +6767,10 @@
         <v>2.9734235256910321E-2</v>
       </c>
       <c r="D152">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E152">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -6936,11 +6785,10 @@
         <v>1.5348454937338831E-2</v>
       </c>
       <c r="D153">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E153">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -6955,11 +6803,10 @@
         <v>0.98906576633453369</v>
       </c>
       <c r="D154">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E154">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F154">
@@ -6977,11 +6824,10 @@
         <v>1.4852831140160561E-2</v>
       </c>
       <c r="D155">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E155">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -6996,11 +6842,10 @@
         <v>0.33087736368179321</v>
       </c>
       <c r="D156">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E156">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7015,11 +6860,10 @@
         <v>1.601602137088776E-2</v>
       </c>
       <c r="D157">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E157">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7034,11 +6878,10 @@
         <v>1.490705739706755E-2</v>
       </c>
       <c r="D158">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E158">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7053,11 +6896,10 @@
         <v>1.423894055187702E-2</v>
       </c>
       <c r="D159">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E159">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7072,11 +6914,10 @@
         <v>1.4734372496604919E-2</v>
       </c>
       <c r="D160">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E160">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7091,11 +6932,10 @@
         <v>1.634985581040382E-2</v>
       </c>
       <c r="D161">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E161">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7110,11 +6950,10 @@
         <v>0.99053359031677246</v>
       </c>
       <c r="D162">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E162">
-        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -7129,11 +6968,10 @@
         <v>2.0030098035931591E-2</v>
       </c>
       <c r="D163">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E163">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7148,11 +6986,10 @@
         <v>1.424637250602245E-2</v>
       </c>
       <c r="D164">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E164">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7167,11 +7004,10 @@
         <v>1.9861688837409019E-2</v>
       </c>
       <c r="D165">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E165">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7186,11 +7022,10 @@
         <v>1.4568319544196131E-2</v>
       </c>
       <c r="D166">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E166">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7205,11 +7040,10 @@
         <v>2.3776259273290631E-2</v>
       </c>
       <c r="D167">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E167">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7224,11 +7058,10 @@
         <v>1.4197270385921E-2</v>
       </c>
       <c r="D168">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E168">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7243,11 +7076,10 @@
         <v>1.459294930100441E-2</v>
       </c>
       <c r="D169">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E169">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7262,11 +7094,10 @@
         <v>1.492046471685171E-2</v>
       </c>
       <c r="D170">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E170">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7281,11 +7112,10 @@
         <v>1.420735847204924E-2</v>
       </c>
       <c r="D171">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E171">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7300,11 +7130,10 @@
         <v>2.419381774961948E-2</v>
       </c>
       <c r="D172">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E172">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7319,11 +7148,10 @@
         <v>1.418539043515921E-2</v>
       </c>
       <c r="D173">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E173">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7338,11 +7166,10 @@
         <v>6.00871741771698E-2</v>
       </c>
       <c r="D174">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E174">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7357,11 +7184,10 @@
         <v>1.6435761004686359E-2</v>
       </c>
       <c r="D175">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E175">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7376,11 +7202,10 @@
         <v>0.22240534424781799</v>
       </c>
       <c r="D176">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E176">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7395,11 +7220,10 @@
         <v>1.598611660301685E-2</v>
       </c>
       <c r="D177">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E177">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7414,11 +7238,10 @@
         <v>1.4365109615027899E-2</v>
       </c>
       <c r="D178">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E178">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7433,11 +7256,10 @@
         <v>1.447270438075066E-2</v>
       </c>
       <c r="D179">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E179">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7452,11 +7274,10 @@
         <v>1.5181766822934151E-2</v>
       </c>
       <c r="D180">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E180">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7471,11 +7292,10 @@
         <v>1.4323228970170019E-2</v>
       </c>
       <c r="D181">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E181">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7490,11 +7310,10 @@
         <v>1.6416031867265701E-2</v>
       </c>
       <c r="D182">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E182">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7509,11 +7328,10 @@
         <v>1.446266286075115E-2</v>
       </c>
       <c r="D183">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E183">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7528,11 +7346,10 @@
         <v>2.956440486013889E-2</v>
       </c>
       <c r="D184">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E184">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7547,11 +7364,10 @@
         <v>1.444122102111578E-2</v>
       </c>
       <c r="D185">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E185">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7566,11 +7382,10 @@
         <v>1.448369864374399E-2</v>
       </c>
       <c r="D186">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E186">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7585,11 +7400,10 @@
         <v>1.422837749123573E-2</v>
       </c>
       <c r="D187">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E187">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7604,11 +7418,10 @@
         <v>1.8252858892083171E-2</v>
       </c>
       <c r="D188">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E188">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7623,11 +7436,10 @@
         <v>1.424525491893291E-2</v>
       </c>
       <c r="D189">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E189">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7642,11 +7454,10 @@
         <v>1.452962402254343E-2</v>
       </c>
       <c r="D190">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E190">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7661,11 +7472,10 @@
         <v>1.447050739079714E-2</v>
       </c>
       <c r="D191">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E191">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7680,11 +7490,10 @@
         <v>0.98695600032806396</v>
       </c>
       <c r="D192">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E192">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F192">
@@ -7702,11 +7511,10 @@
         <v>1.425699703395367E-2</v>
       </c>
       <c r="D193">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E193">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7721,11 +7529,10 @@
         <v>4.7258302569389343E-2</v>
       </c>
       <c r="D194">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E194">
-        <f t="shared" ref="E194:E257" si="6">IF(ISBLANK(F194),D194,F194)</f>
         <v>0</v>
       </c>
     </row>
@@ -7740,11 +7547,10 @@
         <v>1.426071021705866E-2</v>
       </c>
       <c r="D195">
-        <f t="shared" ref="D195:D258" si="7">IF(C195&gt;0.5, 1, 0)</f>
+        <f t="shared" ref="D195:D258" si="3">IF(C195&gt;0.5, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="E195">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -7759,11 +7565,10 @@
         <v>1.4878003858029841E-2</v>
       </c>
       <c r="D196">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E196">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -7778,11 +7583,10 @@
         <v>1.4591893181204799E-2</v>
       </c>
       <c r="D197">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E197">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -7797,11 +7601,10 @@
         <v>2.0932944491505619E-2</v>
       </c>
       <c r="D198">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E198">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -7816,11 +7619,10 @@
         <v>2.6515454053878781E-2</v>
       </c>
       <c r="D199">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E199">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -7835,11 +7637,10 @@
         <v>1.4439483173191551E-2</v>
       </c>
       <c r="D200">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E200">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -7854,11 +7655,10 @@
         <v>1.549737621098757E-2</v>
       </c>
       <c r="D201">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E201">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -7873,11 +7673,10 @@
         <v>1.7356624826788899E-2</v>
       </c>
       <c r="D202">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E202">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -7892,11 +7691,10 @@
         <v>1.452002115547657E-2</v>
       </c>
       <c r="D203">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E203">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -7911,11 +7709,10 @@
         <v>1.450021378695965E-2</v>
       </c>
       <c r="D204">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E204">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -7930,11 +7727,10 @@
         <v>1.497474499046803E-2</v>
       </c>
       <c r="D205">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E205">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -7949,11 +7745,10 @@
         <v>1.479865983128548E-2</v>
       </c>
       <c r="D206">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E206">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -7968,11 +7763,10 @@
         <v>1.453167945146561E-2</v>
       </c>
       <c r="D207">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E207">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -7987,11 +7781,10 @@
         <v>1.84751320630312E-2</v>
       </c>
       <c r="D208">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E208">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8006,11 +7799,10 @@
         <v>1.4218408614397051E-2</v>
       </c>
       <c r="D209">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E209">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8025,11 +7817,10 @@
         <v>1.483273506164551E-2</v>
       </c>
       <c r="D210">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E210">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8044,11 +7835,10 @@
         <v>1.445305347442627E-2</v>
       </c>
       <c r="D211">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E211">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8063,11 +7853,10 @@
         <v>0.84795218706130981</v>
       </c>
       <c r="D212">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E212">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F212">
@@ -8085,11 +7874,10 @@
         <v>1.477140374481678E-2</v>
       </c>
       <c r="D213">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E213">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8104,11 +7892,10 @@
         <v>1.459502708166838E-2</v>
       </c>
       <c r="D214">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E214">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8123,11 +7910,10 @@
         <v>3.5324916243553162E-2</v>
       </c>
       <c r="D215">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E215">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8142,11 +7928,10 @@
         <v>1.432314980775118E-2</v>
       </c>
       <c r="D216">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E216">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8161,11 +7946,10 @@
         <v>1.4260849915444849E-2</v>
       </c>
       <c r="D217">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E217">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8180,11 +7964,10 @@
         <v>0.98125505447387695</v>
       </c>
       <c r="D218">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E218">
-        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -8199,11 +7982,10 @@
         <v>1.428468059748411E-2</v>
       </c>
       <c r="D219">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E219">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8218,11 +8000,10 @@
         <v>1.928222551941872E-2</v>
       </c>
       <c r="D220">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E220">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8237,11 +8018,10 @@
         <v>1.420848723500967E-2</v>
       </c>
       <c r="D221">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E221">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8256,11 +8036,10 @@
         <v>1.4515586197376249E-2</v>
       </c>
       <c r="D222">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E222">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8275,11 +8054,10 @@
         <v>0.77245628833770752</v>
       </c>
       <c r="D223">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E223">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F223">
@@ -8297,11 +8075,10 @@
         <v>1.4395522885024549E-2</v>
       </c>
       <c r="D224">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E224">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8316,11 +8093,10 @@
         <v>3.6224033683538437E-2</v>
       </c>
       <c r="D225">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E225">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8335,11 +8111,10 @@
         <v>1.5065792016685011E-2</v>
       </c>
       <c r="D226">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E226">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8354,11 +8129,10 @@
         <v>1.4289528131484991E-2</v>
       </c>
       <c r="D227">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E227">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8373,11 +8147,10 @@
         <v>0.52427589893341064</v>
       </c>
       <c r="D228">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E228">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F228">
@@ -8395,11 +8168,10 @@
         <v>1.497295778244734E-2</v>
       </c>
       <c r="D229">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E229">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8414,11 +8186,10 @@
         <v>1.430802419781685E-2</v>
       </c>
       <c r="D230">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E230">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8433,11 +8204,10 @@
         <v>2.0562715828418732E-2</v>
       </c>
       <c r="D231">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E231">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8452,11 +8222,10 @@
         <v>1.495435461401939E-2</v>
       </c>
       <c r="D232">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E232">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8471,11 +8240,10 @@
         <v>1.917033456265926E-2</v>
       </c>
       <c r="D233">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E233">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8490,11 +8258,10 @@
         <v>1.4244892634451389E-2</v>
       </c>
       <c r="D234">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E234">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8509,11 +8276,10 @@
         <v>0.98602193593978882</v>
       </c>
       <c r="D235">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E235">
-        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -8528,11 +8294,10 @@
         <v>1.475030928850174E-2</v>
       </c>
       <c r="D236">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E236">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8547,11 +8312,10 @@
         <v>0.98956620693206787</v>
       </c>
       <c r="D237">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E237">
-        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -8566,11 +8330,10 @@
         <v>1.4835508540272709E-2</v>
       </c>
       <c r="D238">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E238">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8585,11 +8348,10 @@
         <v>0.76754271984100342</v>
       </c>
       <c r="D239">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E239">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F239">
@@ -8607,11 +8369,10 @@
         <v>2.0167859271168709E-2</v>
       </c>
       <c r="D240">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E240">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8626,11 +8387,10 @@
         <v>2.380622923374176E-2</v>
       </c>
       <c r="D241">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E241">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8645,11 +8405,10 @@
         <v>0.33109584450721741</v>
       </c>
       <c r="D242">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E242">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8664,11 +8423,10 @@
         <v>0.97788280248641968</v>
       </c>
       <c r="D243">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E243">
-        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -8683,11 +8441,10 @@
         <v>1.6488987952470779E-2</v>
       </c>
       <c r="D244">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E244">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8702,11 +8459,10 @@
         <v>1.43045661970973E-2</v>
       </c>
       <c r="D245">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E245">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8721,11 +8477,10 @@
         <v>1.4377273619174961E-2</v>
       </c>
       <c r="D246">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E246">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8740,11 +8495,10 @@
         <v>1.4462900348007681E-2</v>
       </c>
       <c r="D247">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E247">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8759,11 +8513,10 @@
         <v>1.418131589889526E-2</v>
       </c>
       <c r="D248">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E248">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8778,11 +8531,10 @@
         <v>1.4202116057276729E-2</v>
       </c>
       <c r="D249">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E249">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8797,11 +8549,10 @@
         <v>1.420417986810207E-2</v>
       </c>
       <c r="D250">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E250">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8816,11 +8567,10 @@
         <v>1.435584854334593E-2</v>
       </c>
       <c r="D251">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E251">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8835,11 +8585,10 @@
         <v>1.4367189258337019E-2</v>
       </c>
       <c r="D252">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E252">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8854,11 +8603,10 @@
         <v>1.4662559144198889E-2</v>
       </c>
       <c r="D253">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E253">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8873,11 +8621,10 @@
         <v>1.451526675373316E-2</v>
       </c>
       <c r="D254">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E254">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8892,11 +8639,10 @@
         <v>1.7571588978171349E-2</v>
       </c>
       <c r="D255">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E255">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8911,11 +8657,10 @@
         <v>3.1746864318847663E-2</v>
       </c>
       <c r="D256">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E256">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8930,11 +8675,10 @@
         <v>1.548064965754747E-2</v>
       </c>
       <c r="D257">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E257">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8949,11 +8693,10 @@
         <v>1.4627472497522829E-2</v>
       </c>
       <c r="D258">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E258">
-        <f t="shared" ref="E258:E321" si="8">IF(ISBLANK(F258),D258,F258)</f>
         <v>0</v>
       </c>
     </row>
@@ -8968,11 +8711,10 @@
         <v>1.453594211488962E-2</v>
       </c>
       <c r="D259">
-        <f t="shared" ref="D259:D322" si="9">IF(C259&gt;0.5, 1, 0)</f>
+        <f t="shared" ref="D259:D322" si="4">IF(C259&gt;0.5, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="E259">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -8987,11 +8729,10 @@
         <v>2.8153615072369579E-2</v>
       </c>
       <c r="D260">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E260">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9006,11 +8747,10 @@
         <v>1.4419193379580969E-2</v>
       </c>
       <c r="D261">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E261">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9025,11 +8765,10 @@
         <v>0.99059379100799561</v>
       </c>
       <c r="D262">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E262">
-        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -9044,11 +8783,10 @@
         <v>1.4222445897758011E-2</v>
       </c>
       <c r="D263">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E263">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9063,11 +8801,10 @@
         <v>1.45467035472393E-2</v>
       </c>
       <c r="D264">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E264">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9082,11 +8819,10 @@
         <v>1.920615695416927E-2</v>
       </c>
       <c r="D265">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E265">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9101,11 +8837,10 @@
         <v>1.510851830244064E-2</v>
       </c>
       <c r="D266">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E266">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9120,11 +8855,10 @@
         <v>1.767276972532272E-2</v>
       </c>
       <c r="D267">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E267">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9139,11 +8873,10 @@
         <v>2.0500712096691132E-2</v>
       </c>
       <c r="D268">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E268">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9158,11 +8891,10 @@
         <v>0.33112829923629761</v>
       </c>
       <c r="D269">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E269">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9177,11 +8909,10 @@
         <v>1.549899019300938E-2</v>
       </c>
       <c r="D270">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E270">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9196,11 +8927,10 @@
         <v>1.476486772298813E-2</v>
       </c>
       <c r="D271">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E271">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9215,11 +8945,10 @@
         <v>1.480050850659609E-2</v>
       </c>
       <c r="D272">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E272">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9234,11 +8963,10 @@
         <v>1.5254071913659571E-2</v>
       </c>
       <c r="D273">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E273">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9253,11 +8981,10 @@
         <v>1.4664082787930971E-2</v>
       </c>
       <c r="D274">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E274">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9272,11 +8999,10 @@
         <v>1.4887238852679729E-2</v>
       </c>
       <c r="D275">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E275">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9291,11 +9017,10 @@
         <v>1.44697530195117E-2</v>
       </c>
       <c r="D276">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E276">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9310,11 +9035,10 @@
         <v>1.4780795201659201E-2</v>
       </c>
       <c r="D277">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E277">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9329,11 +9053,10 @@
         <v>1.5999587252736092E-2</v>
       </c>
       <c r="D278">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E278">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9348,11 +9071,10 @@
         <v>1.432949304580688E-2</v>
       </c>
       <c r="D279">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E279">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9367,11 +9089,10 @@
         <v>1.4273250475525859E-2</v>
       </c>
       <c r="D280">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E280">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9386,11 +9107,10 @@
         <v>0.98040890693664551</v>
       </c>
       <c r="D281">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E281">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F281">
@@ -9408,11 +9128,10 @@
         <v>0.91296321153640747</v>
       </c>
       <c r="D282">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E282">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F282">
@@ -9430,11 +9149,10 @@
         <v>2.3548584431409839E-2</v>
       </c>
       <c r="D283">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E283">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9449,11 +9167,10 @@
         <v>1.541150733828545E-2</v>
       </c>
       <c r="D284">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E284">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9468,11 +9185,10 @@
         <v>2.3681763559579849E-2</v>
       </c>
       <c r="D285">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E285">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9487,11 +9203,10 @@
         <v>5.2975393831729889E-2</v>
       </c>
       <c r="D286">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E286">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9506,11 +9221,10 @@
         <v>1.4332590624690059E-2</v>
       </c>
       <c r="D287">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E287">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9525,11 +9239,10 @@
         <v>1.501680072396994E-2</v>
       </c>
       <c r="D288">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E288">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9544,11 +9257,10 @@
         <v>0.33107635378837591</v>
       </c>
       <c r="D289">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E289">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9563,11 +9275,10 @@
         <v>1.4865840785205361E-2</v>
       </c>
       <c r="D290">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E290">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9582,11 +9293,10 @@
         <v>0.86764240264892578</v>
       </c>
       <c r="D291">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E291">
-        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -9601,11 +9311,10 @@
         <v>4.7440268099308007E-2</v>
       </c>
       <c r="D292">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E292">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9620,11 +9329,10 @@
         <v>1.4707682654261591E-2</v>
       </c>
       <c r="D293">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E293">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9639,11 +9347,10 @@
         <v>1.4804716221988199E-2</v>
       </c>
       <c r="D294">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E294">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9658,11 +9365,10 @@
         <v>1.427477411925793E-2</v>
       </c>
       <c r="D295">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E295">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9677,11 +9383,10 @@
         <v>1.8145166337490078E-2</v>
       </c>
       <c r="D296">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E296">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9696,11 +9401,10 @@
         <v>0.99057590961456299</v>
       </c>
       <c r="D297">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E297">
-        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -9715,11 +9419,10 @@
         <v>0.1114531755447388</v>
       </c>
       <c r="D298">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E298">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9734,11 +9437,10 @@
         <v>2.670787088572979E-2</v>
       </c>
       <c r="D299">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E299">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9753,11 +9455,10 @@
         <v>0.76399332284927368</v>
       </c>
       <c r="D300">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E300">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F300">
@@ -9775,11 +9476,10 @@
         <v>1.4482446014881131E-2</v>
       </c>
       <c r="D301">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E301">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9794,11 +9494,10 @@
         <v>1.917737536132336E-2</v>
       </c>
       <c r="D302">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E302">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9813,11 +9512,10 @@
         <v>1.4414132572710511E-2</v>
       </c>
       <c r="D303">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E303">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9832,11 +9530,10 @@
         <v>2.3534949868917469E-2</v>
       </c>
       <c r="D304">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E304">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9851,11 +9548,10 @@
         <v>1.5175017528235911E-2</v>
       </c>
       <c r="D305">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E305">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9870,11 +9566,10 @@
         <v>1.9869942218065258E-2</v>
       </c>
       <c r="D306">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E306">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9889,11 +9584,10 @@
         <v>0.98720943927764893</v>
       </c>
       <c r="D307">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E307">
-        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -9908,11 +9602,10 @@
         <v>1.535216718912125E-2</v>
       </c>
       <c r="D308">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E308">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9927,11 +9620,10 @@
         <v>2.516175992786884E-2</v>
       </c>
       <c r="D309">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E309">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9946,11 +9638,10 @@
         <v>1.6131222248077389E-2</v>
       </c>
       <c r="D310">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E310">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9965,11 +9656,10 @@
         <v>6.1771824955940247E-2</v>
       </c>
       <c r="D311">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E311">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9984,11 +9674,10 @@
         <v>1.4629350043833259E-2</v>
       </c>
       <c r="D312">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E312">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10003,11 +9692,10 @@
         <v>1.7764033749699589E-2</v>
       </c>
       <c r="D313">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E313">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10022,11 +9710,10 @@
         <v>0.82518208026885986</v>
       </c>
       <c r="D314">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E314">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F314">
@@ -10044,11 +9731,10 @@
         <v>7.3994264006614685E-2</v>
       </c>
       <c r="D315">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E315">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10063,11 +9749,10 @@
         <v>3.4926753491163247E-2</v>
       </c>
       <c r="D316">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E316">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10082,11 +9767,10 @@
         <v>0.99035722017288208</v>
       </c>
       <c r="D317">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E317">
-        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -10101,11 +9785,10 @@
         <v>3.6459814757108688E-2</v>
       </c>
       <c r="D318">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E318">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10120,11 +9803,10 @@
         <v>0.79058051109313965</v>
       </c>
       <c r="D319">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E319">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F319">
@@ -10142,11 +9824,10 @@
         <v>4.0536064654588699E-2</v>
       </c>
       <c r="D320">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E320">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10161,11 +9842,10 @@
         <v>1.4605263248085981E-2</v>
       </c>
       <c r="D321">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E321">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10180,11 +9860,10 @@
         <v>1.645341515541077E-2</v>
       </c>
       <c r="D322">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E322">
-        <f t="shared" ref="E322:E385" si="10">IF(ISBLANK(F322),D322,F322)</f>
         <v>0</v>
       </c>
     </row>
@@ -10199,11 +9878,10 @@
         <v>3.4165065735578537E-2</v>
       </c>
       <c r="D323">
-        <f t="shared" ref="D323:D386" si="11">IF(C323&gt;0.5, 1, 0)</f>
+        <f t="shared" ref="D323:D386" si="5">IF(C323&gt;0.5, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="E323">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -10218,11 +9896,10 @@
         <v>0.2130170464515686</v>
       </c>
       <c r="D324">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E324">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -10237,11 +9914,10 @@
         <v>0.97595793008804321</v>
       </c>
       <c r="D325">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E325">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F325">
@@ -10259,11 +9935,10 @@
         <v>1.438034232705832E-2</v>
       </c>
       <c r="D326">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E326">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -10278,11 +9953,10 @@
         <v>1.4402066357433799E-2</v>
       </c>
       <c r="D327">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E327">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -10297,11 +9971,10 @@
         <v>1.4289918355643749E-2</v>
       </c>
       <c r="D328">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E328">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -10316,11 +9989,10 @@
         <v>1.555973850190639E-2</v>
       </c>
       <c r="D329">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E329">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -10335,11 +10007,10 @@
         <v>1.4251041226089001E-2</v>
       </c>
       <c r="D330">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E330">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -10354,11 +10025,10 @@
         <v>1.44014498218894E-2</v>
       </c>
       <c r="D331">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E331">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -10373,11 +10043,10 @@
         <v>1.4463586732745171E-2</v>
       </c>
       <c r="D332">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E332">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -10392,11 +10061,10 @@
         <v>1.4952162280678751E-2</v>
       </c>
       <c r="D333">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E333">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -10411,11 +10079,10 @@
         <v>0.98953944444656372</v>
       </c>
       <c r="D334">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E334">
-        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -10430,11 +10097,10 @@
         <v>1.4519324526190759E-2</v>
       </c>
       <c r="D335">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E335">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -10449,11 +10115,10 @@
         <v>1.44458906725049E-2</v>
       </c>
       <c r="D336">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E336">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -10468,11 +10133,10 @@
         <v>1.7218513414263729E-2</v>
       </c>
       <c r="D337">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E337">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -10487,11 +10151,10 @@
         <v>1.447549276053905E-2</v>
       </c>
       <c r="D338">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E338">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -10506,11 +10169,10 @@
         <v>1.417621690779924E-2</v>
       </c>
       <c r="D339">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E339">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -10525,11 +10187,10 @@
         <v>1.4453182928264139E-2</v>
       </c>
       <c r="D340">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E340">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -10544,11 +10205,10 @@
         <v>1.459445059299469E-2</v>
       </c>
       <c r="D341">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E341">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -10563,11 +10223,10 @@
         <v>1.454133819788694E-2</v>
       </c>
       <c r="D342">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E342">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -10582,11 +10241,10 @@
         <v>2.2824587300419811E-2</v>
       </c>
       <c r="D343">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E343">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -10601,11 +10259,10 @@
         <v>2.0496254786849018E-2</v>
       </c>
       <c r="D344">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E344">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -10620,11 +10277,10 @@
         <v>1.5486001968383791E-2</v>
       </c>
       <c r="D345">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E345">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -10639,11 +10295,10 @@
         <v>1.4230965636670589E-2</v>
       </c>
       <c r="D346">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E346">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -10658,11 +10313,10 @@
         <v>1.4912659302353861E-2</v>
       </c>
       <c r="D347">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E347">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -10677,11 +10331,10 @@
         <v>1.4388807117939001E-2</v>
       </c>
       <c r="D348">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E348">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -10696,11 +10349,10 @@
         <v>1.534689869731665E-2</v>
       </c>
       <c r="D349">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E349">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -10715,11 +10367,10 @@
         <v>1.681310310959816E-2</v>
       </c>
       <c r="D350">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E350">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -10734,11 +10385,10 @@
         <v>1.4199826866388319E-2</v>
       </c>
       <c r="D351">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E351">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -10753,11 +10403,10 @@
         <v>1.8925543874502179E-2</v>
       </c>
       <c r="D352">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E352">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -10772,11 +10421,10 @@
         <v>1.4552528038620951E-2</v>
       </c>
       <c r="D353">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E353">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -10791,11 +10439,10 @@
         <v>1.419289410114288E-2</v>
       </c>
       <c r="D354">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E354">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -10810,11 +10457,10 @@
         <v>3.0618868768215179E-2</v>
       </c>
       <c r="D355">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E355">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -10829,11 +10475,10 @@
         <v>1.8781336024403569E-2</v>
       </c>
       <c r="D356">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E356">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -10848,11 +10493,10 @@
         <v>1.5269980765879151E-2</v>
       </c>
       <c r="D357">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E357">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -10867,11 +10511,10 @@
         <v>2.0815266296267509E-2</v>
       </c>
       <c r="D358">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E358">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -10886,11 +10529,10 @@
         <v>1.5421127900481221E-2</v>
       </c>
       <c r="D359">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E359">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -10905,11 +10547,10 @@
         <v>1.4282101765275E-2</v>
       </c>
       <c r="D360">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E360">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -10924,11 +10565,10 @@
         <v>0.99058109521865845</v>
       </c>
       <c r="D361">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E361">
-        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -10943,11 +10583,10 @@
         <v>1.4860939234495159E-2</v>
       </c>
       <c r="D362">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E362">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -10962,11 +10601,10 @@
         <v>1.4591028913855549E-2</v>
       </c>
       <c r="D363">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E363">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -10981,11 +10619,10 @@
         <v>3.135831281542778E-2</v>
       </c>
       <c r="D364">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E364">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11000,11 +10637,10 @@
         <v>4.3243840336799622E-2</v>
       </c>
       <c r="D365">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E365">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11019,11 +10655,10 @@
         <v>1.4477315358817581E-2</v>
       </c>
       <c r="D366">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E366">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11038,11 +10673,10 @@
         <v>1.4877333305776119E-2</v>
       </c>
       <c r="D367">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E367">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11057,11 +10691,10 @@
         <v>1.4274021610617639E-2</v>
       </c>
       <c r="D368">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E368">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11076,11 +10709,10 @@
         <v>1.5407419763505461E-2</v>
       </c>
       <c r="D369">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E369">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11095,11 +10727,10 @@
         <v>1.4901840128004549E-2</v>
       </c>
       <c r="D370">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E370">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11114,11 +10745,10 @@
         <v>1.9897207617759701E-2</v>
       </c>
       <c r="D371">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E371">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11133,11 +10763,10 @@
         <v>0.99059242010116577</v>
       </c>
       <c r="D372">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E372">
-        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -11152,11 +10781,10 @@
         <v>0.99058014154434204</v>
       </c>
       <c r="D373">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E373">
-        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -11171,11 +10799,10 @@
         <v>0.99057090282440186</v>
       </c>
       <c r="D374">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E374">
-        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -11190,11 +10817,10 @@
         <v>1.419097930192947E-2</v>
       </c>
       <c r="D375">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E375">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11209,11 +10835,10 @@
         <v>1.426779665052891E-2</v>
       </c>
       <c r="D376">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E376">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11228,11 +10853,10 @@
         <v>2.098442055284977E-2</v>
       </c>
       <c r="D377">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E377">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11247,11 +10871,10 @@
         <v>1.492723636329174E-2</v>
       </c>
       <c r="D378">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E378">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11266,11 +10889,10 @@
         <v>1.85229666531086E-2</v>
       </c>
       <c r="D379">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E379">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11285,11 +10907,10 @@
         <v>1.4241892844438549E-2</v>
       </c>
       <c r="D380">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E380">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11304,11 +10925,10 @@
         <v>1.99459008872509E-2</v>
       </c>
       <c r="D381">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E381">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11323,11 +10943,10 @@
         <v>1.4318727888166899E-2</v>
       </c>
       <c r="D382">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E382">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11342,11 +10961,10 @@
         <v>1.4599280431866649E-2</v>
       </c>
       <c r="D383">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E383">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11361,11 +10979,10 @@
         <v>1.4195568859577181E-2</v>
       </c>
       <c r="D384">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E384">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11380,11 +10997,10 @@
         <v>1.7357055097818371E-2</v>
       </c>
       <c r="D385">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E385">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -11399,11 +11015,10 @@
         <v>1.500406861305237E-2</v>
       </c>
       <c r="D386">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E386">
-        <f t="shared" ref="E386:E449" si="12">IF(ISBLANK(F386),D386,F386)</f>
         <v>0</v>
       </c>
     </row>
@@ -11418,11 +11033,10 @@
         <v>1.515435148030519E-2</v>
       </c>
       <c r="D387">
-        <f t="shared" ref="D387:D450" si="13">IF(C387&gt;0.5, 1, 0)</f>
+        <f t="shared" ref="D387:D450" si="6">IF(C387&gt;0.5, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="E387">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -11437,11 +11051,10 @@
         <v>1.566199399530888E-2</v>
       </c>
       <c r="D388">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E388">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -11456,11 +11069,10 @@
         <v>1.438319310545921E-2</v>
       </c>
       <c r="D389">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E389">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -11475,11 +11087,10 @@
         <v>3.5500958561897278E-2</v>
       </c>
       <c r="D390">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E390">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -11494,11 +11105,10 @@
         <v>0.48275947570800781</v>
       </c>
       <c r="D391">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E391">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -11513,11 +11123,10 @@
         <v>1.463902462273836E-2</v>
       </c>
       <c r="D392">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E392">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -11532,11 +11141,10 @@
         <v>1.466357242316008E-2</v>
       </c>
       <c r="D393">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E393">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -11551,11 +11159,10 @@
         <v>1.483406592160463E-2</v>
       </c>
       <c r="D394">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E394">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -11570,11 +11177,10 @@
         <v>1.64934191852808E-2</v>
       </c>
       <c r="D395">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E395">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -11589,11 +11195,10 @@
         <v>1.454153656959534E-2</v>
       </c>
       <c r="D396">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E396">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -11608,11 +11213,10 @@
         <v>1.4212762005627161E-2</v>
       </c>
       <c r="D397">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E397">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -11627,11 +11231,10 @@
         <v>1.4851986430585379E-2</v>
       </c>
       <c r="D398">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E398">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -11646,11 +11249,10 @@
         <v>1.7726017162203789E-2</v>
       </c>
       <c r="D399">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E399">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -11665,11 +11267,10 @@
         <v>1.428683567792177E-2</v>
       </c>
       <c r="D400">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E400">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -11684,11 +11285,10 @@
         <v>0.98945784568786621</v>
       </c>
       <c r="D401">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E401">
-        <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
@@ -11703,11 +11303,10 @@
         <v>3.4979283809661872E-2</v>
       </c>
       <c r="D402">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E402">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -11722,11 +11321,10 @@
         <v>1.7501430585980419E-2</v>
       </c>
       <c r="D403">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E403">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -11741,11 +11339,10 @@
         <v>1.4172918163239959E-2</v>
       </c>
       <c r="D404">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E404">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -11760,11 +11357,10 @@
         <v>1.5419629402458669E-2</v>
       </c>
       <c r="D405">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E405">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -11779,11 +11375,10 @@
         <v>1.4225113205611709E-2</v>
       </c>
       <c r="D406">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E406">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -11798,11 +11393,10 @@
         <v>1.4246459119021891E-2</v>
       </c>
       <c r="D407">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E407">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -11817,11 +11411,10 @@
         <v>3.2959174364805222E-2</v>
       </c>
       <c r="D408">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E408">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -11836,11 +11429,10 @@
         <v>1.555752567946911E-2</v>
       </c>
       <c r="D409">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E409">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -11855,11 +11447,10 @@
         <v>1.7067022621631619E-2</v>
       </c>
       <c r="D410">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E410">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -11874,11 +11465,10 @@
         <v>1.486818864941597E-2</v>
       </c>
       <c r="D411">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E411">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -11893,11 +11483,10 @@
         <v>1.5107383020222191E-2</v>
       </c>
       <c r="D412">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E412">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -11912,11 +11501,10 @@
         <v>5.486452579498291E-2</v>
       </c>
       <c r="D413">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E413">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -11931,11 +11519,10 @@
         <v>1.4392031356692311E-2</v>
       </c>
       <c r="D414">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E414">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -11950,11 +11537,10 @@
         <v>1.4963537454605101E-2</v>
       </c>
       <c r="D415">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E415">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -11969,11 +11555,10 @@
         <v>1.4357104897499079E-2</v>
       </c>
       <c r="D416">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E416">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -11988,11 +11573,10 @@
         <v>1.484039518982172E-2</v>
       </c>
       <c r="D417">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E417">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12007,11 +11591,10 @@
         <v>1.4412052929401399E-2</v>
       </c>
       <c r="D418">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E418">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12026,11 +11609,10 @@
         <v>3.748944029211998E-2</v>
       </c>
       <c r="D419">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E419">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12045,11 +11627,10 @@
         <v>1.421088539063931E-2</v>
       </c>
       <c r="D420">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E420">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12064,11 +11645,10 @@
         <v>1.4371775090694429E-2</v>
       </c>
       <c r="D421">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E421">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12083,11 +11663,10 @@
         <v>1.714936830103397E-2</v>
       </c>
       <c r="D422">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E422">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12102,11 +11681,10 @@
         <v>0.99007517099380493</v>
       </c>
       <c r="D423">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E423">
-        <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
@@ -12121,11 +11699,10 @@
         <v>0.89330726861953735</v>
       </c>
       <c r="D424">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E424">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F424">
@@ -12143,11 +11720,10 @@
         <v>1.429691165685654E-2</v>
       </c>
       <c r="D425">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E425">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12162,11 +11738,10 @@
         <v>1.4209676533937451E-2</v>
       </c>
       <c r="D426">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E426">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12181,11 +11756,10 @@
         <v>0.33110219240188599</v>
       </c>
       <c r="D427">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E427">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12200,11 +11774,10 @@
         <v>1.4264450408518309E-2</v>
       </c>
       <c r="D428">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E428">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12219,11 +11792,10 @@
         <v>1.7917009070515629E-2</v>
       </c>
       <c r="D429">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E429">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12238,11 +11810,10 @@
         <v>1.4904872514307501E-2</v>
       </c>
       <c r="D430">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E430">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12257,11 +11828,10 @@
         <v>1.4209822751581671E-2</v>
       </c>
       <c r="D431">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E431">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12276,11 +11846,10 @@
         <v>1.4197324402630331E-2</v>
       </c>
       <c r="D432">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E432">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12295,11 +11864,10 @@
         <v>1.456485688686371E-2</v>
       </c>
       <c r="D433">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E433">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12314,11 +11882,10 @@
         <v>1.416675094515085E-2</v>
       </c>
       <c r="D434">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E434">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12333,11 +11900,10 @@
         <v>1.461628172546625E-2</v>
       </c>
       <c r="D435">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E435">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12352,11 +11918,10 @@
         <v>1.459386851638556E-2</v>
       </c>
       <c r="D436">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E436">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12371,11 +11936,10 @@
         <v>1.511029805988073E-2</v>
       </c>
       <c r="D437">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E437">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12390,11 +11954,10 @@
         <v>1.424480602145195E-2</v>
       </c>
       <c r="D438">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E438">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12409,11 +11972,10 @@
         <v>1.438823156058788E-2</v>
       </c>
       <c r="D439">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E439">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12428,11 +11990,10 @@
         <v>1.4312354847788811E-2</v>
       </c>
       <c r="D440">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E440">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12447,11 +12008,10 @@
         <v>1.461031474173069E-2</v>
       </c>
       <c r="D441">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E441">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12466,11 +12026,10 @@
         <v>1.446768455207348E-2</v>
       </c>
       <c r="D442">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E442">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12485,11 +12044,10 @@
         <v>1.420910190790892E-2</v>
       </c>
       <c r="D443">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E443">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12504,11 +12062,10 @@
         <v>1.4268963597714899E-2</v>
       </c>
       <c r="D444">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E444">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12523,11 +12080,10 @@
         <v>1.447039842605591E-2</v>
       </c>
       <c r="D445">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E445">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12542,11 +12098,10 @@
         <v>1.588180847465992E-2</v>
       </c>
       <c r="D446">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E446">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12561,11 +12116,10 @@
         <v>1.4713107608258721E-2</v>
       </c>
       <c r="D447">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E447">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12580,11 +12134,10 @@
         <v>2.078389190137386E-2</v>
       </c>
       <c r="D448">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E448">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12599,11 +12152,10 @@
         <v>1.4261742122471331E-2</v>
       </c>
       <c r="D449">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E449">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12618,11 +12170,10 @@
         <v>1.5167686156928539E-2</v>
       </c>
       <c r="D450">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E450">
-        <f t="shared" ref="E450:E513" si="14">IF(ISBLANK(F450),D450,F450)</f>
         <v>0</v>
       </c>
     </row>
@@ -12637,11 +12188,10 @@
         <v>1.468205451965332E-2</v>
       </c>
       <c r="D451">
-        <f t="shared" ref="D451:D514" si="15">IF(C451&gt;0.5, 1, 0)</f>
+        <f t="shared" ref="D451:D514" si="7">IF(C451&gt;0.5, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="E451">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -12656,11 +12206,10 @@
         <v>1.444454677402973E-2</v>
       </c>
       <c r="D452">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E452">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -12675,11 +12224,10 @@
         <v>1.4408613555133339E-2</v>
       </c>
       <c r="D453">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E453">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -12694,11 +12242,10 @@
         <v>1.448348164558411E-2</v>
       </c>
       <c r="D454">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E454">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -12713,11 +12260,10 @@
         <v>1.5094524249434469E-2</v>
       </c>
       <c r="D455">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E455">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -12732,11 +12278,10 @@
         <v>1.599879190325737E-2</v>
       </c>
       <c r="D456">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E456">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -12751,11 +12296,10 @@
         <v>3.3320799469947808E-2</v>
       </c>
       <c r="D457">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E457">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -12770,11 +12314,10 @@
         <v>1.9532708451151851E-2</v>
       </c>
       <c r="D458">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E458">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -12789,11 +12332,10 @@
         <v>4.7754775732755661E-2</v>
       </c>
       <c r="D459">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E459">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -12808,11 +12350,10 @@
         <v>0.3311150074005127</v>
       </c>
       <c r="D460">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E460">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -12827,11 +12368,10 @@
         <v>1.433441694825888E-2</v>
       </c>
       <c r="D461">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E461">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -12846,11 +12386,10 @@
         <v>4.1236814111471183E-2</v>
       </c>
       <c r="D462">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E462">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -12865,11 +12404,10 @@
         <v>1.4248012565076349E-2</v>
       </c>
       <c r="D463">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E463">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -12884,11 +12422,10 @@
         <v>2.563592791557312E-2</v>
       </c>
       <c r="D464">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E464">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -12903,11 +12440,10 @@
         <v>1.4525555074214941E-2</v>
       </c>
       <c r="D465">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E465">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -12922,11 +12458,10 @@
         <v>0.98923712968826294</v>
       </c>
       <c r="D466">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E466">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="F466">
@@ -12944,11 +12479,10 @@
         <v>0.63347905874252319</v>
       </c>
       <c r="D467">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E467">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="F467">
@@ -12966,11 +12500,10 @@
         <v>1.5437310561537739E-2</v>
       </c>
       <c r="D468">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E468">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -12985,11 +12518,10 @@
         <v>1.868325658142567E-2</v>
       </c>
       <c r="D469">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E469">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13004,11 +12536,10 @@
         <v>1.6632018610835079E-2</v>
       </c>
       <c r="D470">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E470">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13023,11 +12554,10 @@
         <v>1.424921117722988E-2</v>
       </c>
       <c r="D471">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E471">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13042,11 +12572,10 @@
         <v>0.31646546721458441</v>
       </c>
       <c r="D472">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E472">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13061,11 +12590,10 @@
         <v>1.487555913627148E-2</v>
       </c>
       <c r="D473">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E473">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13080,11 +12608,10 @@
         <v>1.41511894762516E-2</v>
       </c>
       <c r="D474">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E474">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13099,11 +12626,10 @@
         <v>1.417756360024214E-2</v>
       </c>
       <c r="D475">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E475">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13118,11 +12644,10 @@
         <v>1.5964072197675701E-2</v>
       </c>
       <c r="D476">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E476">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13137,11 +12662,10 @@
         <v>1.5786821022629741E-2</v>
       </c>
       <c r="D477">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E477">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13156,11 +12680,10 @@
         <v>1.437519304454327E-2</v>
       </c>
       <c r="D478">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E478">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13175,11 +12698,10 @@
         <v>1.4824125915765761E-2</v>
       </c>
       <c r="D479">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E479">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13194,11 +12716,10 @@
         <v>1.44185908138752E-2</v>
       </c>
       <c r="D480">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E480">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13213,11 +12734,10 @@
         <v>1.430957019329071E-2</v>
       </c>
       <c r="D481">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E481">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13232,11 +12752,10 @@
         <v>1.4149526134133341E-2</v>
       </c>
       <c r="D482">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E482">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13251,11 +12770,10 @@
         <v>1.699419692158699E-2</v>
       </c>
       <c r="D483">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E483">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13270,11 +12788,10 @@
         <v>1.473736297339201E-2</v>
       </c>
       <c r="D484">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E484">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13289,11 +12806,10 @@
         <v>1.427655853331089E-2</v>
       </c>
       <c r="D485">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E485">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13308,11 +12824,10 @@
         <v>1.4327795244753361E-2</v>
       </c>
       <c r="D486">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E486">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13327,11 +12842,10 @@
         <v>1.423980388790369E-2</v>
       </c>
       <c r="D487">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E487">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13346,11 +12860,10 @@
         <v>1.4246185310184961E-2</v>
       </c>
       <c r="D488">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E488">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13365,11 +12878,10 @@
         <v>0.91427487134933472</v>
       </c>
       <c r="D489">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E489">
-        <f t="shared" si="14"/>
         <v>1</v>
       </c>
     </row>
@@ -13384,11 +12896,10 @@
         <v>0.33115199208259583</v>
       </c>
       <c r="D490">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E490">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13403,11 +12914,10 @@
         <v>1.500036753714085E-2</v>
       </c>
       <c r="D491">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E491">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13422,11 +12932,10 @@
         <v>1.5729237347841259E-2</v>
       </c>
       <c r="D492">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E492">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13441,11 +12950,10 @@
         <v>1.435963436961174E-2</v>
       </c>
       <c r="D493">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E493">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13460,11 +12968,10 @@
         <v>1.428889017552137E-2</v>
       </c>
       <c r="D494">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E494">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13479,11 +12986,10 @@
         <v>1.4418854378163809E-2</v>
       </c>
       <c r="D495">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E495">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13498,11 +13004,10 @@
         <v>1.41852293163538E-2</v>
       </c>
       <c r="D496">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E496">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13517,11 +13022,10 @@
         <v>1.419539656490088E-2</v>
       </c>
       <c r="D497">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E497">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13536,11 +13040,10 @@
         <v>1.4596507884562021E-2</v>
       </c>
       <c r="D498">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E498">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13555,11 +13058,10 @@
         <v>0.43346196413040161</v>
       </c>
       <c r="D499">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E499">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13574,11 +13076,10 @@
         <v>1.422597002238035E-2</v>
       </c>
       <c r="D500">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E500">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13593,11 +13094,10 @@
         <v>0.115640752017498</v>
       </c>
       <c r="D501">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E501">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13612,11 +13112,10 @@
         <v>0.33110159635543818</v>
       </c>
       <c r="D502">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E502">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13631,11 +13130,10 @@
         <v>1.4214251190423971E-2</v>
       </c>
       <c r="D503">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E503">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13650,11 +13148,10 @@
         <v>1.518472004681826E-2</v>
       </c>
       <c r="D504">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E504">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13669,11 +13166,10 @@
         <v>1.431622356176376E-2</v>
       </c>
       <c r="D505">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E505">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13688,11 +13184,10 @@
         <v>4.0476351976394653E-2</v>
       </c>
       <c r="D506">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E506">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13707,11 +13202,10 @@
         <v>1.4235067181289199E-2</v>
       </c>
       <c r="D507">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E507">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13726,11 +13220,10 @@
         <v>1.433034054934978E-2</v>
       </c>
       <c r="D508">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E508">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13745,11 +13238,10 @@
         <v>1.4516241848468781E-2</v>
       </c>
       <c r="D509">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E509">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13764,11 +13256,10 @@
         <v>0.11356087028980261</v>
       </c>
       <c r="D510">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E510">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13783,11 +13274,10 @@
         <v>1.430376153439283E-2</v>
       </c>
       <c r="D511">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E511">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13802,11 +13292,10 @@
         <v>1.509591471403837E-2</v>
       </c>
       <c r="D512">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E512">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13821,11 +13310,10 @@
         <v>1.576990075409412E-2</v>
       </c>
       <c r="D513">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E513">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13840,11 +13328,10 @@
         <v>1.6166351735591888E-2</v>
       </c>
       <c r="D514">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E514">
-        <f t="shared" ref="E514:E577" si="16">IF(ISBLANK(F514),D514,F514)</f>
         <v>0</v>
       </c>
     </row>
@@ -13859,11 +13346,10 @@
         <v>1.70135423541069E-2</v>
       </c>
       <c r="D515">
-        <f t="shared" ref="D515:D578" si="17">IF(C515&gt;0.5, 1, 0)</f>
+        <f t="shared" ref="D515:D578" si="8">IF(C515&gt;0.5, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="E515">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -13878,11 +13364,10 @@
         <v>1.419159956276417E-2</v>
       </c>
       <c r="D516">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E516">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -13897,11 +13382,10 @@
         <v>1.4634504914283751E-2</v>
       </c>
       <c r="D517">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E517">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -13916,11 +13400,10 @@
         <v>1.435466203838587E-2</v>
       </c>
       <c r="D518">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E518">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -13935,11 +13418,10 @@
         <v>1.4394852332770819E-2</v>
       </c>
       <c r="D519">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E519">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -13954,11 +13436,10 @@
         <v>1.418142952024937E-2</v>
       </c>
       <c r="D520">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E520">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -13973,11 +13454,10 @@
         <v>0.12845331430435181</v>
       </c>
       <c r="D521">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E521">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -13992,11 +13472,10 @@
         <v>1.4306396245956419E-2</v>
       </c>
       <c r="D522">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E522">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14011,11 +13490,10 @@
         <v>1.4213003218173981E-2</v>
       </c>
       <c r="D523">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E523">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14030,11 +13508,10 @@
         <v>2.1349521353840831E-2</v>
       </c>
       <c r="D524">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E524">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14049,11 +13526,10 @@
         <v>1.4252889901399611E-2</v>
       </c>
       <c r="D525">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E525">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14068,11 +13544,10 @@
         <v>1.4242180623114111E-2</v>
       </c>
       <c r="D526">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E526">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14087,11 +13562,10 @@
         <v>1.527031883597374E-2</v>
       </c>
       <c r="D527">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E527">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14106,11 +13580,10 @@
         <v>1.4694276265799999E-2</v>
       </c>
       <c r="D528">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E528">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14125,11 +13598,10 @@
         <v>1.431227475404739E-2</v>
       </c>
       <c r="D529">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E529">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14144,11 +13616,10 @@
         <v>1.534437667578459E-2</v>
       </c>
       <c r="D530">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E530">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14163,11 +13634,10 @@
         <v>1.5365852974355221E-2</v>
       </c>
       <c r="D531">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E531">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14182,11 +13652,10 @@
         <v>1.4208421111106871E-2</v>
       </c>
       <c r="D532">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E532">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14201,11 +13670,10 @@
         <v>1.420652959495783E-2</v>
       </c>
       <c r="D533">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E533">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14220,11 +13688,10 @@
         <v>1.6676601022481918E-2</v>
       </c>
       <c r="D534">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E534">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14239,11 +13706,10 @@
         <v>1.4531911350786689E-2</v>
       </c>
       <c r="D535">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E535">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14258,11 +13724,10 @@
         <v>0.33110159635543818</v>
       </c>
       <c r="D536">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E536">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14277,11 +13742,10 @@
         <v>1.4463993720710279E-2</v>
       </c>
       <c r="D537">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E537">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14296,11 +13760,10 @@
         <v>1.480178162455559E-2</v>
       </c>
       <c r="D538">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E538">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14315,11 +13778,10 @@
         <v>1.4403413981199259E-2</v>
       </c>
       <c r="D539">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E539">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14334,11 +13796,10 @@
         <v>1.5834687277674672E-2</v>
       </c>
       <c r="D540">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E540">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14353,11 +13814,10 @@
         <v>4.6535510569810867E-2</v>
       </c>
       <c r="D541">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E541">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14372,11 +13832,10 @@
         <v>1.4406438916921621E-2</v>
       </c>
       <c r="D542">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E542">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14391,11 +13850,10 @@
         <v>4.1971553117036819E-2</v>
       </c>
       <c r="D543">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E543">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14410,11 +13868,10 @@
         <v>1.4324226416647431E-2</v>
       </c>
       <c r="D544">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E544">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14429,11 +13886,10 @@
         <v>5.5323958396911621E-2</v>
       </c>
       <c r="D545">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E545">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14448,11 +13904,10 @@
         <v>1.460271701216698E-2</v>
       </c>
       <c r="D546">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E546">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14467,11 +13922,10 @@
         <v>0.45701110363006592</v>
       </c>
       <c r="D547">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E547">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14486,11 +13940,10 @@
         <v>1.5199737623333929E-2</v>
       </c>
       <c r="D548">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E548">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14505,11 +13958,10 @@
         <v>1.6011761501431469E-2</v>
       </c>
       <c r="D549">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E549">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14524,11 +13976,10 @@
         <v>4.0903050452470779E-2</v>
       </c>
       <c r="D550">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E550">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14543,11 +13994,10 @@
         <v>2.6301750913262371E-2</v>
       </c>
       <c r="D551">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E551">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14562,11 +14012,10 @@
         <v>3.662867471575737E-2</v>
       </c>
       <c r="D552">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E552">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14581,11 +14030,10 @@
         <v>1.7805855721235279E-2</v>
       </c>
       <c r="D553">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E553">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14600,11 +14048,10 @@
         <v>0.7397923469543457</v>
       </c>
       <c r="D554">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="E554">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="F554">
@@ -14622,11 +14069,10 @@
         <v>0.89951378107070923</v>
       </c>
       <c r="D555">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="E555">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="F555">
@@ -14644,11 +14090,10 @@
         <v>3.3420581370592117E-2</v>
       </c>
       <c r="D556">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E556">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14663,11 +14108,10 @@
         <v>0.99058127403259277</v>
       </c>
       <c r="D557">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="E557">
-        <f t="shared" si="16"/>
         <v>1</v>
       </c>
     </row>
@@ -14682,11 +14126,10 @@
         <v>1.693838462233543E-2</v>
       </c>
       <c r="D558">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E558">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14701,11 +14144,10 @@
         <v>5.1464393734931953E-2</v>
       </c>
       <c r="D559">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E559">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14720,11 +14162,10 @@
         <v>0.1086022406816483</v>
       </c>
       <c r="D560">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E560">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14739,11 +14180,10 @@
         <v>1.4303182251751419E-2</v>
       </c>
       <c r="D561">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E561">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14758,11 +14198,10 @@
         <v>4.1987337172031403E-2</v>
       </c>
       <c r="D562">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E562">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14777,11 +14216,10 @@
         <v>1.454521436244249E-2</v>
       </c>
       <c r="D563">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E563">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14796,11 +14234,10 @@
         <v>1.4807497151195999E-2</v>
       </c>
       <c r="D564">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E564">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14815,11 +14252,10 @@
         <v>1.4296615496277809E-2</v>
       </c>
       <c r="D565">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E565">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14834,11 +14270,10 @@
         <v>1.450303476303816E-2</v>
       </c>
       <c r="D566">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E566">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14853,11 +14288,10 @@
         <v>1.4558102935552601E-2</v>
       </c>
       <c r="D567">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E567">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14872,11 +14306,10 @@
         <v>1.652875728905201E-2</v>
       </c>
       <c r="D568">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E568">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14891,11 +14324,10 @@
         <v>1.4185077510774141E-2</v>
       </c>
       <c r="D569">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E569">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14910,11 +14342,10 @@
         <v>1.465651858597994E-2</v>
       </c>
       <c r="D570">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E570">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14929,11 +14360,10 @@
         <v>2.125521190464497E-2</v>
       </c>
       <c r="D571">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E571">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14948,11 +14378,10 @@
         <v>1.440747454762459E-2</v>
       </c>
       <c r="D572">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E572">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14967,11 +14396,10 @@
         <v>1.6571506857872009E-2</v>
       </c>
       <c r="D573">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E573">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -14986,11 +14414,10 @@
         <v>1.5152649953961371E-2</v>
       </c>
       <c r="D574">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E574">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15005,11 +14432,10 @@
         <v>1.5379638411104681E-2</v>
       </c>
       <c r="D575">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E575">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15024,11 +14450,10 @@
         <v>1.6949249431490902E-2</v>
       </c>
       <c r="D576">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E576">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15043,11 +14468,10 @@
         <v>1.9869942218065258E-2</v>
       </c>
       <c r="D577">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E577">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -15062,11 +14486,10 @@
         <v>5.4252553731203079E-2</v>
       </c>
       <c r="D578">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E578">
-        <f t="shared" ref="E578:E602" si="18">IF(ISBLANK(F578),D578,F578)</f>
         <v>0</v>
       </c>
     </row>
@@ -15081,11 +14504,10 @@
         <v>0.99016004800796509</v>
       </c>
       <c r="D579">
-        <f t="shared" ref="D579:D602" si="19">IF(C579&gt;0.5, 1, 0)</f>
+        <f t="shared" ref="D579:D602" si="9">IF(C579&gt;0.5, 1, 0)</f>
         <v>1</v>
       </c>
       <c r="E579">
-        <f t="shared" si="18"/>
         <v>1</v>
       </c>
     </row>
@@ -15100,11 +14522,10 @@
         <v>1.481110136955976E-2</v>
       </c>
       <c r="D580">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E580">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -15119,11 +14540,10 @@
         <v>1.6075782477855679E-2</v>
       </c>
       <c r="D581">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E581">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -15138,11 +14558,10 @@
         <v>5.4252553731203079E-2</v>
       </c>
       <c r="D582">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E582">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -15157,11 +14576,10 @@
         <v>5.4252553731203079E-2</v>
       </c>
       <c r="D583">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E583">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -15176,11 +14594,10 @@
         <v>0.99058049917221069</v>
       </c>
       <c r="D584">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E584">
-        <f t="shared" si="18"/>
         <v>1</v>
       </c>
     </row>
@@ -15195,11 +14612,10 @@
         <v>1.9141469150781631E-2</v>
       </c>
       <c r="D585">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E585">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -15214,11 +14630,10 @@
         <v>0.98919838666915894</v>
       </c>
       <c r="D586">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E586">
-        <f t="shared" si="18"/>
         <v>1</v>
       </c>
     </row>
@@ -15233,11 +14648,10 @@
         <v>1.4294532127678391E-2</v>
       </c>
       <c r="D587">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E587">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -15252,11 +14666,10 @@
         <v>1.4519659802317619E-2</v>
       </c>
       <c r="D588">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E588">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -15271,11 +14684,10 @@
         <v>1.44847808405757E-2</v>
       </c>
       <c r="D589">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E589">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -15290,11 +14702,10 @@
         <v>1.4198519289493561E-2</v>
       </c>
       <c r="D590">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E590">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -15309,11 +14720,10 @@
         <v>1.430247072130442E-2</v>
       </c>
       <c r="D591">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E591">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -15328,11 +14738,10 @@
         <v>0.99008721113204956</v>
       </c>
       <c r="D592">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E592">
-        <f t="shared" si="18"/>
         <v>1</v>
       </c>
     </row>
@@ -15347,11 +14756,10 @@
         <v>0.98986685276031494</v>
       </c>
       <c r="D593">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E593">
-        <f t="shared" si="18"/>
         <v>1</v>
       </c>
     </row>
@@ -15366,11 +14774,10 @@
         <v>1.419837214052677E-2</v>
       </c>
       <c r="D594">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E594">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -15385,11 +14792,10 @@
         <v>1.44902877509594E-2</v>
       </c>
       <c r="D595">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E595">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -15404,11 +14810,10 @@
         <v>1.4442496933043E-2</v>
       </c>
       <c r="D596">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E596">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -15423,11 +14828,10 @@
         <v>2.9141755774617199E-2</v>
       </c>
       <c r="D597">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E597">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -15442,11 +14846,10 @@
         <v>1.4780497178435331E-2</v>
       </c>
       <c r="D598">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E598">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -15461,11 +14864,10 @@
         <v>1.423055771738291E-2</v>
       </c>
       <c r="D599">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E599">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -15480,11 +14882,10 @@
         <v>1.508043054491282E-2</v>
       </c>
       <c r="D600">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E600">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -15499,11 +14900,10 @@
         <v>3.6032479256391532E-2</v>
       </c>
       <c r="D601">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E601">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -15518,11 +14918,10 @@
         <v>0.99059242010116577</v>
       </c>
       <c r="D602">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E602">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="F602">
